--- a/product/抽奖结果.xlsx
+++ b/product/抽奖结果.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,20 +393,20 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>特别奖</v>
+        <v>特別獎</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="str">
-        <v>CARLO CHOI</v>
+        <v>YUKI LEE (PA)</v>
       </c>
       <c r="C3" t="str">
-        <v>STAFF</v>
+        <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="str">
-        <v>PETER CHEN</v>
+        <v>SUNNIE LI</v>
       </c>
       <c r="C4" t="str">
         <v>WON TEAM</v>
@@ -414,110 +414,104 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>特等奖</v>
+        <v>頭獎</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="str">
-        <v>MALICE CHAN</v>
+        <v>MAGGIE LEE</v>
       </c>
       <c r="C6" t="str">
+        <v>GRYFFINDOR DIVISION</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>二獎</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>NG MAN HEI JEFF</v>
+      </c>
+      <c r="C8" t="str">
         <v>WEFIRE TEAM</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="str">
-        <v>LARRY YIP</v>
-      </c>
-      <c r="C7" t="str">
-        <v>HOUSE TEAM</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>一等奖</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="str">
-        <v>AUSTIN LEE</v>
+        <v>KAN LEE</v>
       </c>
       <c r="C9" t="str">
-        <v>WON TEAM</v>
+        <v>PFS DIVISION</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="str">
-        <v>ICO YAO</v>
+        <v>JESSICA NG</v>
       </c>
       <c r="C10" t="str">
-        <v>SIGNATURE PRIVATE TEAM</v>
+        <v>SYNERGY TEAM</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="str">
-        <v>WINCY CHO</v>
-      </c>
-      <c r="C11" t="str">
-        <v>GRYFFINDOR DIVISION</v>
+      <c r="A11" t="str">
+        <v>三獎</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="str">
-        <v>TYRONE WU</v>
+        <v>TIM LEUNG</v>
       </c>
       <c r="C12" t="str">
-        <v>STAFF</v>
+        <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="str">
-        <v>AUDREY LIN</v>
-      </c>
-      <c r="C13" t="str">
+      <c r="A13" t="str">
+        <v>四獎</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>MARCO MAK</v>
+      </c>
+      <c r="C14" t="str">
         <v>SYNERGY TEAM</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>二等奖</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="str">
-        <v>MIRANDA CHAU</v>
+        <v>HELENA KOON</v>
       </c>
       <c r="C15" t="str">
-        <v>DIRECTIONS AND MAP</v>
+        <v>WON TEAM</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="str">
-        <v>KAY CHEUNG</v>
+        <v>TANIMOTO CHITOSE</v>
       </c>
       <c r="C16" t="str">
-        <v>SYNERGY TEAM</v>
+        <v>JAPAN TEAM</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="str">
-        <v>CATHERINE LO</v>
-      </c>
-      <c r="C17" t="str">
-        <v>GRYFFINDOR DIVISION</v>
+      <c r="A17" t="str">
+        <v>五獎</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="str">
-        <v>NICOLE ZHANG</v>
+        <v>WALTER LEUNG</v>
       </c>
       <c r="C18" t="str">
-        <v>GRYFFINDOR DIVISION</v>
+        <v>DIRECTIONS AND MAP</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="str">
-        <v>JESSICA CHAN</v>
+        <v>NELSON CHAN</v>
       </c>
       <c r="C19" t="str">
         <v>WON TEAM</v>
@@ -525,89 +519,83 @@
     </row>
     <row r="20">
       <c r="B20" t="str">
-        <v>LOUIS LAM</v>
+        <v>ANNABELLE NG</v>
       </c>
       <c r="C20" t="str">
-        <v>WON TEAM</v>
+        <v>WEFIRE TEAM</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>三等奖</v>
+        <v>五獎</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="str">
-        <v>EMMA ZHU</v>
+        <v>CONNIE WONG</v>
       </c>
       <c r="C22" t="str">
-        <v>WEFIRE TEAM</v>
+        <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="str">
-        <v>KENNETH LEUNG</v>
+        <v>TERRY MAN</v>
       </c>
       <c r="C23" t="str">
-        <v>DIRECTIONS AND MAP</v>
+        <v>STAFF</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="str">
-        <v>TERRY CHAN</v>
+        <v>COHEN HUANG</v>
       </c>
       <c r="C24" t="str">
-        <v>WON TEAM</v>
+        <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="str">
-        <v>JIM HO</v>
-      </c>
-      <c r="C25" t="str">
-        <v>WEFIRE TEAM</v>
+      <c r="A25" t="str">
+        <v>六獎</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="str">
-        <v>LEO KH CHENG</v>
+        <v>ZAYDEN LAI</v>
       </c>
       <c r="C26" t="str">
-        <v>WEFIRE TEAM</v>
+        <v>DIRECTIONS AND MAP</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="str">
-        <v>BRIAN CHEONG</v>
-      </c>
-      <c r="C27" t="str">
-        <v>WON TEAM</v>
+      <c r="A27" t="str">
+        <v>七獎</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="str">
-        <v>JESSICA NG</v>
+        <v>NATALIE SO</v>
       </c>
       <c r="C28" t="str">
-        <v>SYNERGY TEAM</v>
+        <v>WEFIRE TEAM</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
-        <v>四等奖</v>
+      <c r="B29" t="str">
+        <v>MARCO PAK</v>
+      </c>
+      <c r="C29" t="str">
+        <v>WON TEAM</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="str">
-        <v>KENNY LAU</v>
-      </c>
-      <c r="C30" t="str">
-        <v>GRYFFINDOR DIVISION</v>
+      <c r="A30" t="str">
+        <v>八獎</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="str">
-        <v>YAN LI</v>
+        <v>AHMED KHALID</v>
       </c>
       <c r="C31" t="str">
         <v>GRYFFINDOR DIVISION</v>
@@ -615,217 +603,36 @@
     </row>
     <row r="32">
       <c r="B32" t="str">
-        <v>JEANNY CHOW</v>
+        <v>KEVIN KAN</v>
       </c>
       <c r="C32" t="str">
-        <v>STAFF</v>
+        <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="str">
-        <v>MARGARET YAN</v>
-      </c>
-      <c r="C33" t="str">
-        <v>STAFF</v>
+      <c r="A33" t="str">
+        <v>九獎</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="str">
-        <v>HIM CHOY</v>
+        <v>BRIAN CHEONG</v>
       </c>
       <c r="C34" t="str">
-        <v>WEFIRE TEAM</v>
+        <v>WON TEAM</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="str">
-        <v>TRACY TANG</v>
+        <v>MAXWELL NORMAN</v>
       </c>
       <c r="C35" t="str">
-        <v>WEFIRE TEAM</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="str">
-        <v>RUBY TAM (PA)</v>
-      </c>
-      <c r="C36" t="str">
-        <v>GRYFFINDOR DIVISION</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="str">
-        <v>MAGGIE LI</v>
-      </c>
-      <c r="C37" t="str">
-        <v>GRYFFINDOR DIVISION</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>五等奖</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="str">
-        <v>JENNIFER LEE</v>
-      </c>
-      <c r="C39" t="str">
-        <v>WON TEAM</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="str">
-        <v>CONNIE YAU</v>
-      </c>
-      <c r="C40" t="str">
-        <v>SIGNATURE PRIVATE TEAM</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="str">
-        <v>ALLEN TSE</v>
-      </c>
-      <c r="C41" t="str">
-        <v>STAFF</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="str">
-        <v>EDDIE WONG</v>
-      </c>
-      <c r="C42" t="str">
-        <v>GRYFFINDOR DIVISION</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="str">
-        <v>JANE LEUNG</v>
-      </c>
-      <c r="C43" t="str">
-        <v>STAFF</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="str">
-        <v>GLOVER WONG</v>
-      </c>
-      <c r="C44" t="str">
-        <v>GRYFFINDOR DIVISION</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="str">
-        <v>KENNETH CHAN</v>
-      </c>
-      <c r="C45" t="str">
-        <v>SIGNATURE PRIVATE TEAM</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="str">
-        <v>JOJO CHAN</v>
-      </c>
-      <c r="C46" t="str">
-        <v>SIGNATURE PRIVATE TEAM</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>六等奖</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="str">
-        <v>ANGIE HO</v>
-      </c>
-      <c r="C48" t="str">
-        <v>WEFIRE TEAM</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="str">
-        <v>ALLEN LING</v>
-      </c>
-      <c r="C49" t="str">
-        <v>GRYFFINDOR DIVISION</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="str">
-        <v>EDDIE NG</v>
-      </c>
-      <c r="C50" t="str">
-        <v>DIRECTIONS AND MAP</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="str">
-        <v>YAMMI TSE</v>
-      </c>
-      <c r="C51" t="str">
-        <v>GRYFFINDOR DIVISION</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" t="str">
-        <v>LEWIS WONG</v>
-      </c>
-      <c r="C52" t="str">
-        <v>STAFF</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="str">
-        <v>KAKI CHAN</v>
-      </c>
-      <c r="C53" t="str">
-        <v>STAFF</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="str">
-        <v>YVONNE ZHANG</v>
-      </c>
-      <c r="C54" t="str">
-        <v>WON TEAM</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="str">
-        <v>MIKI AU</v>
-      </c>
-      <c r="C55" t="str">
-        <v>WEFIRE TEAM</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="str">
-        <v>KENNETH CHU</v>
-      </c>
-      <c r="C56" t="str">
-        <v>GRYFFINDOR DIVISION</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="str">
-        <v>MANDY CHAN</v>
-      </c>
-      <c r="C57" t="str">
-        <v>GRYFFINDOR DIVISION</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="str">
-        <v>KHADIJA KAN</v>
-      </c>
-      <c r="C58" t="str">
         <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C58"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C35"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/product/抽奖结果.xlsx
+++ b/product/抽奖结果.xlsx
@@ -398,18 +398,18 @@
     </row>
     <row r="3">
       <c r="B3" t="str">
-        <v>YUKI LEE (PA)</v>
+        <v>SAMMY WONG</v>
       </c>
       <c r="C3" t="str">
-        <v>GRYFFINDOR DIVISION</v>
+        <v>WON TEAM</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="str">
-        <v>SUNNIE LI</v>
+        <v>PREETI KAUR</v>
       </c>
       <c r="C4" t="str">
-        <v>WON TEAM</v>
+        <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
     </row>
     <row r="6">
       <c r="B6" t="str">
-        <v>MAGGIE LEE</v>
+        <v>CONNIE WONG</v>
       </c>
       <c r="C6" t="str">
         <v>GRYFFINDOR DIVISION</v>
@@ -432,26 +432,26 @@
     </row>
     <row r="8">
       <c r="B8" t="str">
-        <v>NG MAN HEI JEFF</v>
+        <v>MATTHEW SO</v>
       </c>
       <c r="C8" t="str">
-        <v>WEFIRE TEAM</v>
+        <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="str">
-        <v>KAN LEE</v>
+        <v>BONNIE CHENG</v>
       </c>
       <c r="C9" t="str">
-        <v>PFS DIVISION</v>
+        <v>HOUSE TEAM</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="str">
-        <v>JESSICA NG</v>
+        <v>SILVIA MAK</v>
       </c>
       <c r="C10" t="str">
-        <v>SYNERGY TEAM</v>
+        <v>STAFF</v>
       </c>
     </row>
     <row r="11">
@@ -461,28 +461,28 @@
     </row>
     <row r="12">
       <c r="B12" t="str">
-        <v>TIM LEUNG</v>
+        <v>KAREN SUNG</v>
       </c>
       <c r="C12" t="str">
-        <v>GRYFFINDOR DIVISION</v>
+        <v>SYNERGY TEAM</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>四獎</v>
+        <v>Market Place惠康禮券港幣$1,000</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="str">
-        <v>MARCO MAK</v>
+        <v>SEAN LEE</v>
       </c>
       <c r="C14" t="str">
-        <v>SYNERGY TEAM</v>
+        <v>WON TEAM</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="str">
-        <v>HELENA KOON</v>
+        <v>IVAN YANG</v>
       </c>
       <c r="C15" t="str">
         <v>WON TEAM</v>
@@ -490,28 +490,28 @@
     </row>
     <row r="16">
       <c r="B16" t="str">
-        <v>TANIMOTO CHITOSE</v>
+        <v>JOHN KWONG</v>
       </c>
       <c r="C16" t="str">
-        <v>JAPAN TEAM</v>
+        <v>ALLSTARS DIVISION</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>五獎</v>
+        <v>Market Place惠康禮券港幣$1,000</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="str">
-        <v>WALTER LEUNG</v>
+        <v>FELIX LO</v>
       </c>
       <c r="C18" t="str">
-        <v>DIRECTIONS AND MAP</v>
+        <v>ALLSTARS DIVISION</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="str">
-        <v>NELSON CHAN</v>
+        <v>YVONNE ZHANG</v>
       </c>
       <c r="C19" t="str">
         <v>WON TEAM</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="20">
       <c r="B20" t="str">
-        <v>ANNABELLE NG</v>
+        <v>KATRINA CHAN</v>
       </c>
       <c r="C20" t="str">
         <v>WEFIRE TEAM</v>
@@ -527,28 +527,28 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>五獎</v>
+        <v>百佳禮券港幣$1,000</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="str">
-        <v>CONNIE WONG</v>
+        <v>LAWRENCE LAI</v>
       </c>
       <c r="C22" t="str">
-        <v>GRYFFINDOR DIVISION</v>
+        <v>WEALTH HORN TEAM</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="str">
-        <v>TERRY MAN</v>
+        <v>MABEL CHAN</v>
       </c>
       <c r="C23" t="str">
-        <v>STAFF</v>
+        <v>WON TEAM</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="str">
-        <v>COHEN HUANG</v>
+        <v>LAMCHEE LAM</v>
       </c>
       <c r="C24" t="str">
         <v>GRYFFINDOR DIVISION</v>
@@ -556,78 +556,78 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>六獎</v>
+        <v>中銀人壽十二生肖清酒杯套裝</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="str">
-        <v>ZAYDEN LAI</v>
+        <v>DEVIN KONG</v>
       </c>
       <c r="C26" t="str">
-        <v>DIRECTIONS AND MAP</v>
+        <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>七獎</v>
+        <v>金運福船</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="str">
-        <v>NATALIE SO</v>
+        <v>JOHN LUI</v>
       </c>
       <c r="C28" t="str">
-        <v>WEFIRE TEAM</v>
+        <v>STAFF</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="str">
-        <v>MARCO PAK</v>
+        <v>JENNIFER WONG</v>
       </c>
       <c r="C29" t="str">
-        <v>WON TEAM</v>
+        <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>八獎</v>
+        <v>頂級海味珍饌福袋</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="str">
-        <v>AHMED KHALID</v>
+        <v>ZERO CHEUNG</v>
       </c>
       <c r="C31" t="str">
-        <v>GRYFFINDOR DIVISION</v>
+        <v>STAFF</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="str">
-        <v>KEVIN KAN</v>
+        <v>KELVIN LUI</v>
       </c>
       <c r="C32" t="str">
-        <v>GRYFFINDOR DIVISION</v>
+        <v>STAFF</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>九獎</v>
+        <v>AXA Wine (Domaine de L'Arlot Clos de L'Arlot 2020)</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="str">
-        <v>BRIAN CHEONG</v>
+        <v>MAXWELL NORMAN</v>
       </c>
       <c r="C34" t="str">
-        <v>WON TEAM</v>
+        <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="str">
-        <v>MAXWELL NORMAN</v>
+        <v>EDDIE NG</v>
       </c>
       <c r="C35" t="str">
-        <v>GRYFFINDOR DIVISION</v>
+        <v>DIRECTIONS AND MAP</v>
       </c>
     </row>
   </sheetData>

--- a/product/抽奖结果.xlsx
+++ b/product/抽奖结果.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,241 +398,249 @@
     </row>
     <row r="3">
       <c r="B3" t="str">
-        <v>SAMMY WONG</v>
+        <v>EDWIN LAM</v>
       </c>
       <c r="C3" t="str">
-        <v>WON TEAM</v>
+        <v>STAFF</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="str">
-        <v>PREETI KAUR</v>
+        <v>CARLO CHOI</v>
       </c>
       <c r="C4" t="str">
-        <v>GRYFFINDOR DIVISION</v>
+        <v>STAFF</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="B5" t="str">
+        <v>EAN PAN</v>
+      </c>
+      <c r="C5" t="str">
+        <v>WON TEAM</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
         <v>頭獎</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="str">
-        <v>CONNIE WONG</v>
-      </c>
-      <c r="C6" t="str">
-        <v>GRYFFINDOR DIVISION</v>
-      </c>
-    </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="B7" t="str">
+        <v>JULIE CHONG</v>
+      </c>
+      <c r="C7" t="str">
+        <v>STAFF</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
         <v>二獎</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="str">
-        <v>MATTHEW SO</v>
-      </c>
-      <c r="C8" t="str">
-        <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="str">
-        <v>BONNIE CHENG</v>
+        <v>CATHERINE SUEN</v>
       </c>
       <c r="C9" t="str">
-        <v>HOUSE TEAM</v>
+        <v>DIRECTIONS AND MAP</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="str">
-        <v>SILVIA MAK</v>
+        <v>SAMUEL LUI</v>
       </c>
       <c r="C10" t="str">
-        <v>STAFF</v>
+        <v>DIRECTIONS AND MAP</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="B11" t="str">
+        <v>JACKSON LEUNG</v>
+      </c>
+      <c r="C11" t="str">
+        <v>WON TEAM</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
         <v>三獎</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" t="str">
-        <v>KAREN SUNG</v>
-      </c>
-      <c r="C12" t="str">
-        <v>SYNERGY TEAM</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="str">
+      <c r="B13" t="str">
+        <v>YU HUI</v>
+      </c>
+      <c r="C13" t="str">
+        <v>GRYFFINDOR DIVISION</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
         <v>Market Place惠康禮券港幣$1,000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="str">
-        <v>SEAN LEE</v>
-      </c>
-      <c r="C14" t="str">
-        <v>WON TEAM</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="str">
-        <v>IVAN YANG</v>
+        <v>BRENDA HUNG</v>
       </c>
       <c r="C15" t="str">
-        <v>WON TEAM</v>
+        <v>DIRECTIONS AND MAP</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="str">
-        <v>JOHN KWONG</v>
+        <v>KELLY TSOI</v>
       </c>
       <c r="C16" t="str">
-        <v>ALLSTARS DIVISION</v>
+        <v>DIRECTIONS AND MAP</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="B17" t="str">
+        <v>GISON TENG</v>
+      </c>
+      <c r="C17" t="str">
+        <v>GRYFFINDOR DIVISION</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
         <v>Market Place惠康禮券港幣$1,000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="str">
-        <v>FELIX LO</v>
-      </c>
-      <c r="C18" t="str">
-        <v>ALLSTARS DIVISION</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="str">
-        <v>YVONNE ZHANG</v>
+        <v>WOODY NG</v>
       </c>
       <c r="C19" t="str">
-        <v>WON TEAM</v>
+        <v>WEFIRE TEAM</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="str">
-        <v>KATRINA CHAN</v>
+        <v>WILSON CHEUNG</v>
       </c>
       <c r="C20" t="str">
+        <v>STAFF</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="str">
+        <v>JOANNA LI</v>
+      </c>
+      <c r="C21" t="str">
         <v>WEFIRE TEAM</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
+    <row r="22">
+      <c r="A22" t="str">
         <v>百佳禮券港幣$1,000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="str">
-        <v>LAWRENCE LAI</v>
-      </c>
-      <c r="C22" t="str">
-        <v>WEALTH HORN TEAM</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="str">
-        <v>MABEL CHAN</v>
+        <v>KENNETH LEUNG</v>
       </c>
       <c r="C23" t="str">
-        <v>WON TEAM</v>
+        <v>DIRECTIONS AND MAP</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="str">
-        <v>LAMCHEE LAM</v>
+        <v>RICARDO TSUI</v>
       </c>
       <c r="C24" t="str">
+        <v>WON TEAM</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="str">
+        <v>TRISTA LAM</v>
+      </c>
+      <c r="C25" t="str">
+        <v>ALLSTARS DIVISION</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>中銀人壽十二生肖清酒杯套裝獎</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="str">
+        <v>LINA WONG</v>
+      </c>
+      <c r="C27" t="str">
         <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>中銀人壽十二生肖清酒杯套裝</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="str">
-        <v>DEVIN KONG</v>
-      </c>
-      <c r="C26" t="str">
-        <v>GRYFFINDOR DIVISION</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
+    <row r="28">
+      <c r="A28" t="str">
         <v>金運福船</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="str">
-        <v>JOHN LUI</v>
-      </c>
-      <c r="C28" t="str">
-        <v>STAFF</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="str">
-        <v>JENNIFER WONG</v>
+        <v>HOI YIN</v>
       </c>
       <c r="C29" t="str">
+        <v>ALLSTARS DIVISION</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="str">
+        <v>SUGAR SO</v>
+      </c>
+      <c r="C30" t="str">
         <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
+    <row r="31">
+      <c r="A31" t="str">
         <v>頂級海味珍饌福袋</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="str">
-        <v>ZERO CHEUNG</v>
-      </c>
-      <c r="C31" t="str">
-        <v>STAFF</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="str">
-        <v>KELVIN LUI</v>
+        <v>CHRISTINE YAU</v>
       </c>
       <c r="C32" t="str">
+        <v>WEFIRE TEAM</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="str">
+        <v>FANNY YU</v>
+      </c>
+      <c r="C33" t="str">
         <v>STAFF</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
+    <row r="34">
+      <c r="A34" t="str">
         <v>AXA Wine (Domaine de L'Arlot Clos de L'Arlot 2020)</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="str">
-        <v>MAXWELL NORMAN</v>
-      </c>
-      <c r="C34" t="str">
-        <v>GRYFFINDOR DIVISION</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="str">
-        <v>EDDIE NG</v>
+        <v>STACEY WONG</v>
       </c>
       <c r="C35" t="str">
-        <v>DIRECTIONS AND MAP</v>
+        <v>GRYFFINDOR DIVISION</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="str">
+        <v>ANNABELLE NG</v>
+      </c>
+      <c r="C36" t="str">
+        <v>WEFIRE TEAM</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C35"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C36"/>
   </ignoredErrors>
 </worksheet>
 </file>